--- a/results/unswbn15-gnb-results.xlsx
+++ b/results/unswbn15-gnb-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,37 +466,72 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>accuracy_lvl_1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>recall_0</t>
+          <t>recall_0_lvl_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>recall_1</t>
+          <t>recall_1_lvl_1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>precision_0</t>
+          <t>precision_0_lvl_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>precision_1</t>
+          <t>precision_1_lvl_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>f1_score_0</t>
+          <t>f1_score_0_lvl_1</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>f1_score_1</t>
+          <t>f1_score_1_lvl_1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy_lvl_2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>recall_0_lvl_2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>recall_1_lvl_2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>precision_0_lvl_2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>precision_1_lvl_2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score_0_lvl_2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score_1_lvl_2</t>
         </is>
       </c>
     </row>
@@ -547,6 +582,27 @@
       <c r="N2" t="n">
         <v>0.004105864728402596</v>
       </c>
+      <c r="O2" t="n">
+        <v>0.5455259026687598</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.002057155565439786</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.545099728818714</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.7055851718198967</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.004105864728402596</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -595,6 +651,27 @@
       <c r="N3" t="n">
         <v>0.00598059128864816</v>
       </c>
+      <c r="O3" t="n">
+        <v>0.5482191851073105</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.9990631440884392</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.002946008724718146</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.5478973463148971</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.7076897552882622</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.005868081024657225</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -643,6 +720,27 @@
       <c r="N4" t="n">
         <v>0.003930635838150289</v>
       </c>
+      <c r="O4" t="n">
+        <v>0.5520549013491383</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.9999056826220231</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.001969416126042632</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.5516873520151953</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.7110567088098192</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.003930635838150289</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -691,6 +789,27 @@
       <c r="N5" t="n">
         <v>0.00448774726896959</v>
       </c>
+      <c r="O5" t="n">
+        <v>0.5513625718543751</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.9991303507585274</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.002251451593790733</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5511727078891258</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.7104331993541516</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.004488012282980985</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -739,6 +858,27 @@
       <c r="N6" t="n">
         <v>0.005016722408026756</v>
       </c>
+      <c r="O6" t="n">
+        <v>0.5503131073202332</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9996560703581782</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.002515723270440251</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.549906754236601</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.7095131817547775</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.005016722408026756</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -787,6 +927,27 @@
       <c r="N7" t="n">
         <v>0.005897530409141172</v>
       </c>
+      <c r="O7" t="n">
+        <v>0.5562563413497135</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.9991113305356703</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.002960769800148038</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.5559462652124941</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.7143815306410619</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.005897530409141172</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -815,25 +976,46 @@
         <v>39338</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9387615028725406</v>
+        <v>0.544130357415222</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9968847352024922</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8811560459583945</v>
+        <v>0.003832907454727252</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8926284982623011</v>
+        <v>0.5433293437571621</v>
       </c>
       <c r="L8" t="n">
-        <v>0.996508299942759</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0.9418803831214263</v>
+        <v>0.7041003217556306</v>
       </c>
       <c r="N8" t="n">
-        <v>0.9352889032154081</v>
+        <v>0.007636544740191467</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.544130357415222</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.003832907454727252</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5433293437571621</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.7041003217556306</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.007636544740191467</v>
       </c>
     </row>
     <row r="9">
@@ -863,25 +1045,46 @@
         <v>39215</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9517021547877088</v>
+        <v>0.5467805686599515</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9982646863675803</v>
+        <v>0.9991581704237209</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9052084395066762</v>
+        <v>0.00437391353109404</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9131612120080302</v>
+        <v>0.5461284797668652</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9980894583052371</v>
+        <v>0.8125</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9538183946162099</v>
+        <v>0.7062362605576767</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9493826500614678</v>
+        <v>0.008700987227396956</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.5467805686599515</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.9991581704237209</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.00437391353109404</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5461284797668652</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.7062362605576767</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.008700987227396956</v>
       </c>
     </row>
     <row r="10">
@@ -911,25 +1114,46 @@
         <v>38487</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9804869176605088</v>
+        <v>0.5515108997843428</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9986694642034696</v>
+        <v>0.9994807892004154</v>
       </c>
       <c r="J10" t="n">
-        <v>0.961733347408424</v>
+        <v>0.002947806485174267</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9641798418972332</v>
+        <v>0.5510735198438517</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9985751082369705</v>
+        <v>0.8225806451612904</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9811216409843895</v>
+        <v>0.7104393484424015</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9798080283924394</v>
+        <v>0.005874560847779762</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.5515108997843428</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.9994807892004154</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.002947806485174267</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5510735198438517</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.8225806451612904</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.7104393484424015</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.005874560847779762</v>
       </c>
     </row>
     <row r="11">
@@ -959,25 +1183,46 @@
         <v>38078</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9812227532958664</v>
+        <v>0.5590367141131362</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9988493723849372</v>
+        <v>0.9982096584216725</v>
       </c>
       <c r="J11" t="n">
-        <v>0.963445511129866</v>
+        <v>0.005933661662611998</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9649840836743975</v>
+        <v>0.5584343700579862</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9987969595887789</v>
+        <v>0.7246376811594203</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9816247333658863</v>
+        <v>0.716200456350883</v>
       </c>
       <c r="N11" t="n">
-        <v>0.980802792321117</v>
+        <v>0.01177093755517627</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.5590892378801408</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.9983510011778564</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.005874325045985878</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.5584545646215475</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.7388059701492538</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.7162534435261707</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.01165597221404604</v>
       </c>
     </row>
     <row r="12">
@@ -1007,25 +1252,46 @@
         <v>36773</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9898023006009844</v>
+        <v>0.5579093356538765</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9991984182119382</v>
+        <v>0.9994623918674551</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9800664451827242</v>
+        <v>0.004046101029916625</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9811102948892854</v>
+        <v>0.5572814475692174</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9991532599491956</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9900717481665828</v>
+        <v>0.7155728957083122</v>
       </c>
       <c r="N12" t="n">
-        <v>0.989517819706499</v>
+        <v>0.00805418268350723</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.5579093356538765</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9994623918674551</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.004046101029916625</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.5572814475692174</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.7155728957083122</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.00805418268350723</v>
       </c>
     </row>
     <row r="13">
@@ -1055,25 +1321,46 @@
         <v>36385</v>
       </c>
       <c r="H13" t="n">
-        <v>0.997416517795795</v>
+        <v>0.5563831249141129</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9991857561611117</v>
+        <v>0.9999504263335316</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9956020709235651</v>
+        <v>0.00450255967433541</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9957264957264957</v>
+        <v>0.5555065957974168</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9991619643555506</v>
+        <v>0.9864864864864865</v>
       </c>
       <c r="M13" t="n">
-        <v>0.9974531266933998</v>
+        <v>0.7142326009595809</v>
       </c>
       <c r="N13" t="n">
-        <v>0.997378841113156</v>
+        <v>0.008964204580340147</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.5563831249141129</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.9999504263335316</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.00450255967433541</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.5555065957974168</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9864864864864865</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.7142326009595809</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.008964204580340147</v>
       </c>
     </row>
     <row r="14">
@@ -1103,25 +1390,46 @@
         <v>39323</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8362281616356839</v>
+        <v>0.5445159321516669</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9993840468124423</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6760243939317575</v>
+        <v>0.004944444444444444</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7517955054444359</v>
+        <v>0.5434826935820971</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9991061452513966</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.858087263111503</v>
+        <v>0.7042290734349456</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8064089460710636</v>
+        <v>0.009840234396594615</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5445159321516669</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.004944444444444444</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.5434826935820971</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.7042290734349456</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.009840234396594615</v>
       </c>
     </row>
     <row r="15">
@@ -1151,25 +1459,46 @@
         <v>39701</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9050149870280345</v>
+        <v>0.5404901639757185</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9995948751709121</v>
+        <v>0.9998595637112629</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8114162573920016</v>
+        <v>0.005398331424832325</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8398859671517318</v>
+        <v>0.5393823076340312</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9995061423544663</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="M15" t="n">
-        <v>0.9128072325371684</v>
+        <v>0.7007430980462918</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8956933034602937</v>
+        <v>0.0107369448511469</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5404901639757185</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.9998595637112629</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.005398331424832325</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.5393823076340312</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.7007430980462918</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.0107369448511469</v>
       </c>
     </row>
     <row r="16">
@@ -1199,25 +1528,46 @@
         <v>38421</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9222560578850107</v>
+        <v>0.5483459566382968</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9995820490047542</v>
+        <v>0.9994758410368817</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8454875518672199</v>
+        <v>0.005334098078577574</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8652767727930536</v>
+        <v>0.5474071560925959</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9995094732969526</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="M16" t="n">
-        <v>0.9275931447409885</v>
+        <v>0.7073841121022545</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9160695720587823</v>
+        <v>0.01060493756770626</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5483459566382968</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.9994758410368817</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.005334098078577574</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5474071560925959</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8942307692307693</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.7073841121022545</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.01060493756770626</v>
       </c>
     </row>
     <row r="17">
@@ -1247,25 +1597,46 @@
         <v>37687</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9320986016398227</v>
+        <v>0.550640804521453</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9997379317574296</v>
+        <v>0.9998549182706258</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8627472055030094</v>
+        <v>0.004527015109647834</v>
       </c>
       <c r="K17" t="n">
-        <v>0.881912335860921</v>
+        <v>0.5497646714707368</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9996886481100941</v>
+        <v>0.9625</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9371361190949959</v>
+        <v>0.7094449686883417</v>
       </c>
       <c r="N17" t="n">
-        <v>0.9261834020826724</v>
+        <v>0.009011644917783369</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.550640804521453</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.9998549182706258</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.004527015109647834</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5497646714707368</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.7094449686883417</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.009011644917783369</v>
       </c>
     </row>
     <row r="18">
@@ -1295,25 +1666,46 @@
         <v>36978</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9512412785980854</v>
+        <v>0.5502731353777922</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9996785427270292</v>
+        <v>0.9999012638230648</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9018729864031017</v>
+        <v>0.005621337160626719</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9121529135705906</v>
+        <v>0.5491567702402256</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9996368478392447</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="M18" t="n">
-        <v>0.953912221057744</v>
+        <v>0.7089502607721655</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9482417109229224</v>
+        <v>0.01117849922701867</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5502731353777922</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.9999012638230648</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.005621337160626719</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.5491567702402256</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.7089502607721655</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.01117849922701867</v>
       </c>
     </row>
     <row r="19">
@@ -1343,25 +1735,46 @@
         <v>36400</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9695604395604396</v>
+        <v>0.5572802197802198</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9996235547190104</v>
+        <v>0.9999504999505</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9381634372367312</v>
+        <v>0.005185825410544511</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9440804510132561</v>
+        <v>0.5562715131488366</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9995811142361319</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9710584056002507</v>
+        <v>0.7148645540279916</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9678989454166184</v>
+        <v>0.0103175090585273</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.5572802197802198</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9999504999505</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.005185825410544511</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.5562715131488366</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.7148645540279916</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0103175090585273</v>
       </c>
     </row>
     <row r="20">
@@ -1391,25 +1804,46 @@
         <v>39333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6257849642793583</v>
+        <v>0.5449368214984873</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0.9997182172544968</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2530322253235219</v>
+        <v>0.008148558758314856</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5714618452848866</v>
+        <v>0.5433129147524247</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0.9607843137254902</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7272996757758221</v>
+        <v>0.7040166685959023</v>
       </c>
       <c r="N20" t="n">
-        <v>0.403871856141914</v>
+        <v>0.01616006156213929</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.5449368214984873</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.9997182172544968</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.008148558758314856</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.5433129147524247</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.9607843137254902</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.7040166685959023</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.01616006156213929</v>
       </c>
     </row>
     <row r="21">
@@ -1439,25 +1873,46 @@
         <v>39230</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6737955646189141</v>
+        <v>0.5510833545755799</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9993400345212712</v>
+        <v>0.9993027471761261</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3454843334015974</v>
+        <v>0.006829598690523226</v>
       </c>
       <c r="K21" t="n">
-        <v>0.606270596569035</v>
+        <v>0.5499053563206631</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9980772075136815</v>
+        <v>0.8897058823529411</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7546916633120555</v>
+        <v>0.7094230039434389</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5132925113147987</v>
+        <v>0.01355514479359211</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5510833545755799</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.9993027471761261</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.006829598690523226</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5499053563206631</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.8897058823529411</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.7094230039434389</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.01355514479359211</v>
       </c>
     </row>
     <row r="22">
@@ -1487,25 +1942,46 @@
         <v>38425</v>
       </c>
       <c r="H22" t="n">
-        <v>0.742537410540013</v>
+        <v>0.5467534157449577</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9992741977292757</v>
+        <v>0.9989968472341645</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4837479096989967</v>
+        <v>0.005488536961866103</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6611442683679769</v>
+        <v>0.5459173018690613</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9984899147880487</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7957806081373986</v>
+        <v>0.7060193781438845</v>
       </c>
       <c r="N22" t="n">
-        <v>0.6517407681205337</v>
+        <v>0.01090413448432531</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5467534157449577</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.9989968472341645</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.005488536961866103</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.5459173018690613</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.7060193781438845</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.01090413448432531</v>
       </c>
     </row>
     <row r="23">
@@ -1535,25 +2011,46 @@
         <v>37472</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7078084970111016</v>
+        <v>0.5591641759180188</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9998412614424044</v>
+        <v>0.9998560046078525</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4106498680880848</v>
+        <v>0.007332612092799616</v>
       </c>
       <c r="K23" t="n">
-        <v>0.633201528047718</v>
+        <v>0.5577690309797306</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9996068152031454</v>
+        <v>0.976</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7753636568802447</v>
+        <v>0.7160756948144583</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5821470823951456</v>
+        <v>0.01455586708823003</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.5591641759180188</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.9998560046078525</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.007332612092799616</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.5577690309797306</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.7160756948144583</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.01455586708823003</v>
       </c>
     </row>
     <row r="24">
@@ -1583,25 +2080,46 @@
         <v>36946</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6954203432035945</v>
+        <v>0.5598711633194392</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9999469777306469</v>
+        <v>0.9996595992997471</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3778613292049099</v>
+        <v>0.007813453790745941</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6263159642655508</v>
+        <v>0.5584472032816278</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9998536942209217</v>
+        <v>0.9481481481481482</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7702109411692635</v>
+        <v>0.7165838779956428</v>
       </c>
       <c r="N24" t="n">
-        <v>0.5484531118333935</v>
+        <v>0.0154991826602894</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.5598711633194392</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.9996595992997471</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.007813453790745941</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.5584472032816278</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.9481481481481482</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.7165838779956428</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0154991826602894</v>
       </c>
     </row>
     <row r="25">
@@ -1631,25 +2149,46 @@
         <v>36082</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8188847624854498</v>
+        <v>0.5620808159192949</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9997820757286843</v>
+        <v>0.9997025580011898</v>
       </c>
       <c r="J25" t="n">
-        <v>0.631578947368421</v>
+        <v>0.007228158390949088</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7375210995900651</v>
+        <v>0.560774172019688</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9996428571428572</v>
+        <v>0.9504132231404959</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8488563036288364</v>
+        <v>0.7185078296189407</v>
       </c>
       <c r="N25" t="n">
-        <v>0.774086493587306</v>
+        <v>0.01434720229555237</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5620808159192949</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.9997025580011898</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.007228158390949088</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.560774172019688</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.9504132231404959</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.7185078296189407</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.01434720229555237</v>
       </c>
     </row>
     <row r="26">
@@ -1699,6 +2238,27 @@
       <c r="N26" t="n">
         <v>0.004233039991088336</v>
       </c>
+      <c r="O26" t="n">
+        <v>0.5469221216959376</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.9999071710373637</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.002121245952886011</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.5465131028184378</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.7067449642411915</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.004233039991088336</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1747,6 +2307,27 @@
       <c r="N27" t="n">
         <v>0.005875042368094</v>
       </c>
+      <c r="O27" t="n">
+        <v>0.5480043149946062</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.9987799155326138</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.0029505220154335</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.5477661107679638</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.7075092244789416</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.005875042368094</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1795,6 +2376,27 @@
       <c r="N28" t="n">
         <v>0.003954178054311798</v>
       </c>
+      <c r="O28" t="n">
+        <v>0.5532691755991967</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.9998111782477341</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.001981467451483187</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.5529304268372275</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.7120644152700498</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.003954178054311798</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1843,6 +2445,27 @@
       <c r="N29" t="n">
         <v>0.004492522314831235</v>
       </c>
+      <c r="O29" t="n">
+        <v>0.5501389037290308</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.9989794926620663</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.002254122671728556</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.5499906359525911</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.6440677966101694</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.709412475196273</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.004492522314831235</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1891,6 +2514,27 @@
       <c r="N30" t="n">
         <v>0.005030843864167215</v>
       </c>
+      <c r="O30" t="n">
+        <v>0.5504289232268016</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.9997044917257684</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.002522674034476545</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.5500067741498442</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.7096086280130749</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.005030843864167215</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1939,6 +2583,27 @@
       <c r="N31" t="n">
         <v>0.006296296296296296</v>
       </c>
+      <c r="O31" t="n">
+        <v>0.5567089792659086</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.999058800217962</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.003099814011159331</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.5563893180313396</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.7246376811594203</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.7147337645078408</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.006173220569170936</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1967,25 +2632,46 @@
         <v>39247</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9405304864066043</v>
+        <v>0.5442708996866003</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9970317297850563</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8845080428274217</v>
+        <v>0.00378745683413167</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8953947973159297</v>
+        <v>0.5434799254702775</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9966836297101035</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9434839459537993</v>
+        <v>0.704226749570049</v>
       </c>
       <c r="N32" t="n">
-        <v>0.9372513173459512</v>
+        <v>0.007546332260570414</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5442708996866003</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.00378745683413167</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5434799254702775</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.704226749570049</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.007546332260570414</v>
       </c>
     </row>
     <row r="33">
@@ -2015,25 +2701,46 @@
         <v>39160</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9574055158324821</v>
+        <v>0.5472931562819203</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9982455235048248</v>
+        <v>0.999204529502597</v>
       </c>
       <c r="J33" t="n">
-        <v>0.917395480511602</v>
+        <v>0.00438473213783799</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9221125887792554</v>
+        <v>0.5466274158453859</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9981299158462131</v>
+        <v>0.8210526315789474</v>
       </c>
       <c r="M33" t="n">
-        <v>0.9586699043560137</v>
+        <v>0.7066649017142101</v>
       </c>
       <c r="N33" t="n">
-        <v>0.9560613244823771</v>
+        <v>0.008722880787295908</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.5472931562819203</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.999204529502597</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.00438473213783799</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.5466274158453859</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.8210526315789474</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7066649017142101</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.008722880787295908</v>
       </c>
     </row>
     <row r="34">
@@ -2063,25 +2770,46 @@
         <v>38446</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9869167143525984</v>
+        <v>0.5518909639494356</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9985532706417278</v>
+        <v>0.9997638390326847</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9751204693065159</v>
+        <v>0.002952414032650226</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9760113125599718</v>
+        <v>0.5513675436311539</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9984982569053366</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="M34" t="n">
-        <v>0.9871536202273018</v>
+        <v>0.7107551794768476</v>
       </c>
       <c r="N34" t="n">
-        <v>0.9866709065373506</v>
+        <v>0.005885747259088286</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.5518909639494356</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.9997638390326847</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.002952414032650226</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.5513675436311539</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.7107551794768476</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.005885747259088286</v>
       </c>
     </row>
     <row r="35">
@@ -2111,25 +2839,46 @@
         <v>37963</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9877248900244975</v>
+        <v>0.5614150620340859</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9986996098829649</v>
+        <v>0.9950314673733024</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9764649375600384</v>
+        <v>0.01693404634581105</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9775469680769818</v>
+        <v>0.5596572006494025</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9986355201397228</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="M35" t="n">
-        <v>0.9880100859362939</v>
+        <v>0.7163833339011345</v>
       </c>
       <c r="N35" t="n">
-        <v>0.987425796006476</v>
+        <v>0.03310104529616725</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.5612306719700761</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.9957885771068944</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.01556743909685086</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.5595022865043071</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.7464387464387464</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.7164524640394927</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.03049880682148885</v>
       </c>
     </row>
     <row r="36">
@@ -2159,25 +2908,46 @@
         <v>36735</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9954267047774602</v>
+        <v>0.558241459098952</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9988198691127561</v>
+        <v>0.9994621552904361</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9919305808876361</v>
+        <v>0.004053307130135724</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9922199722903122</v>
+        <v>0.5576136177641988</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9987756692080806</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M36" t="n">
-        <v>0.9955089820359281</v>
+        <v>0.715846611801786</v>
       </c>
       <c r="N36" t="n">
-        <v>0.9953413565526038</v>
+        <v>0.008068459657701711</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.558241459098952</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.9994621552904361</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.004053307130135724</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.5576136177641988</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.715846611801786</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.008068459657701711</v>
       </c>
     </row>
     <row r="37">
@@ -2207,25 +2977,46 @@
         <v>36380</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9981308411214953</v>
+        <v>0.5568993952721275</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9991873882658866</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9970425757491211</v>
+        <v>0.004631058968817536</v>
       </c>
       <c r="K37" t="n">
-        <v>0.997134670487106</v>
+        <v>0.5559840242390856</v>
       </c>
       <c r="L37" t="n">
-        <v>0.9991612145613152</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.9981599740231627</v>
+        <v>0.7146397592494248</v>
       </c>
       <c r="N37" t="n">
-        <v>0.9981007708635907</v>
+        <v>0.00921942224953903</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.5568993952721275</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.004631058968817536</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.5559840242390856</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7146397592494248</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.00921942224953903</v>
       </c>
     </row>
     <row r="38">
@@ -2255,25 +3046,46 @@
         <v>39212</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8391308783025604</v>
+        <v>0.5442466591859635</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9995898697836563</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6803004161169187</v>
+        <v>0.004955456570155902</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7557950228699899</v>
+        <v>0.5432098765432098</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9994036081705681</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8607628465477662</v>
+        <v>0.704</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8095410628019324</v>
+        <v>0.009862042218405451</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.5442466591859635</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.004955456570155902</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.5432098765432098</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.009862042218405451</v>
       </c>
     </row>
     <row r="39">
@@ -2303,25 +3115,46 @@
         <v>39680</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9115675403225807</v>
+        <v>0.5402469758064516</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9997461413484972</v>
+        <v>0.9998594255189541</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8246597277822257</v>
+        <v>0.005398331424832325</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8489329596895883</v>
+        <v>0.5391379048966598</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9996966939642099</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="M39" t="n">
-        <v>0.9181879648411089</v>
+        <v>0.7005367783450156</v>
       </c>
       <c r="N39" t="n">
-        <v>0.9037812937014998</v>
+        <v>0.0107369448511469</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.5402469758064516</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.9998594255189541</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.005398331424832325</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.5391379048966598</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.9705882352941176</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.7005367783450156</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0107369448511469</v>
       </c>
     </row>
     <row r="40">
@@ -2351,25 +3184,46 @@
         <v>38399</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9433318576004583</v>
+        <v>0.5488424177712962</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9997913406364111</v>
+        <v>0.9994760158147954</v>
       </c>
       <c r="J40" t="n">
-        <v>0.887045608195954</v>
+        <v>0.005342985177524991</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8982097666135533</v>
+        <v>0.5479044261652958</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9997655471543286</v>
+        <v>0.8942307692307693</v>
       </c>
       <c r="M40" t="n">
-        <v>0.9462822158585958</v>
+        <v>0.707799217379571</v>
       </c>
       <c r="N40" t="n">
-        <v>0.9400385781206944</v>
+        <v>0.01062250142775557</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.5488424177712962</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.9994760158147954</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.005342985177524991</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.5479044261652958</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.8942307692307693</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.707799217379571</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.01062250142775557</v>
       </c>
     </row>
     <row r="41">
@@ -2399,25 +3253,46 @@
         <v>37624</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9524239846906231</v>
+        <v>0.5505262598341484</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9997380141472361</v>
+        <v>0.9998546441203546</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9037164895625438</v>
+        <v>0.004533411833971151</v>
       </c>
       <c r="K41" t="n">
-        <v>0.914450035945363</v>
+        <v>0.549648412529299</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9997016528432484</v>
+        <v>0.9625</v>
       </c>
       <c r="M41" t="n">
-        <v>0.9551939924906132</v>
+        <v>0.7093480913668941</v>
       </c>
       <c r="N41" t="n">
-        <v>0.9492889115530625</v>
+        <v>0.009024318781130969</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5505262598341484</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.9998546441203546</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.004533411833971151</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.549648412529299</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.7093480913668941</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.009024318781130969</v>
       </c>
     </row>
     <row r="42">
@@ -2447,25 +3322,46 @@
         <v>36968</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9530134170093053</v>
+        <v>0.5511793983986151</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9997323627020661</v>
+        <v>0.9999014001183198</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9052827299573444</v>
+        <v>0.005634140493886358</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9151354794453428</v>
+        <v>0.5500650900412237</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9996980493991183</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="M42" t="n">
-        <v>0.9555652196157683</v>
+        <v>0.709706767443488</v>
       </c>
       <c r="N42" t="n">
-        <v>0.9501506672406371</v>
+        <v>0.01120381406436234</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.5511793983986151</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.9999014001183198</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.005634140493886358</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.5500650900412237</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.709706767443488</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.01120381406436234</v>
       </c>
     </row>
     <row r="43">
@@ -2495,25 +3391,46 @@
         <v>36405</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9804971844526851</v>
+        <v>0.557341024584535</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9996248861261454</v>
+        <v>0.999950512198743</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9603809738503156</v>
+        <v>0.005185825410544511</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9636823887999173</v>
+        <v>0.5563325991189427</v>
       </c>
       <c r="L43" t="n">
-        <v>0.9995893946503989</v>
+        <v>0.9882352941176471</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9813246356988795</v>
+        <v>0.7149149963734144</v>
       </c>
       <c r="N43" t="n">
-        <v>0.9795930098873303</v>
+        <v>0.0103175090585273</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.557341024584535</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.999950512198743</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.005185825410544511</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.5563325991189427</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.7149149963734144</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.0103175090585273</v>
       </c>
     </row>
     <row r="44">
@@ -2543,25 +3460,46 @@
         <v>39291</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6160698378763585</v>
+        <v>0.5451884655519076</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9997463087929372</v>
+        <v>0.9996710680889056</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2299050148095189</v>
+        <v>0.008162132148806218</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5664673413063478</v>
+        <v>0.5435776886322405</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9988906145995119</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="M44" t="n">
-        <v>0.7231754537280018</v>
+        <v>0.7042272170545201</v>
       </c>
       <c r="N44" t="n">
-        <v>0.3737805637427872</v>
+        <v>0.016185862144902</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.5451884655519076</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.9996710680889056</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.008162132148806218</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.5435776886322405</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7042272170545201</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.016185862144902</v>
       </c>
     </row>
     <row r="45">
@@ -2591,25 +3529,46 @@
         <v>39188</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6916913340818618</v>
+        <v>0.5500153108094314</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9997957724905545</v>
+        <v>0.9992074592074592</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3838383838383838</v>
+        <v>0.006821513135640997</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6185091598231206</v>
+        <v>0.5488604353393086</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9994686503719448</v>
+        <v>0.8768115942028986</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7642352573859422</v>
+        <v>0.7085289256198348</v>
       </c>
       <c r="N45" t="n">
-        <v>0.5546627349797272</v>
+        <v>0.01353770418438129</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.5500153108094314</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.9992074592074592</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.006821513135640997</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.5488604353393086</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.8768115942028986</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.7085289256198348</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.01353770418438129</v>
       </c>
     </row>
     <row r="46">
@@ -2639,25 +3598,46 @@
         <v>38348</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7553457807447586</v>
+        <v>0.5462605611765933</v>
       </c>
       <c r="I46" t="n">
-        <v>0.99921313539317</v>
+        <v>0.9989460572961579</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.005493876616687651</v>
       </c>
       <c r="K46" t="n">
-        <v>0.6703501671652297</v>
+        <v>0.5454355218414857</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9984898822108125</v>
+        <v>0.8135593220338984</v>
       </c>
       <c r="M46" t="n">
-        <v>0.8023926871393066</v>
+        <v>0.7056036816459121</v>
       </c>
       <c r="N46" t="n">
-        <v>0.6788965706071599</v>
+        <v>0.01091405184174625</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.5462605611765933</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.9989460572961579</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.005493876616687651</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.5454355218414857</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.8135593220338984</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0.7056036816459121</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.01091405184174625</v>
       </c>
     </row>
     <row r="47">
@@ -2687,25 +3667,46 @@
         <v>37292</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7222460581357932</v>
+        <v>0.5588061782687976</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9999463490530608</v>
+        <v>0.9998552123552124</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4447541950356511</v>
+        <v>0.007361815109823799</v>
       </c>
       <c r="K47" t="n">
-        <v>0.6428004828418693</v>
+        <v>0.5574030726181828</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9998794745088586</v>
+        <v>0.976</v>
       </c>
       <c r="M47" t="n">
-        <v>0.7825502792123274</v>
+        <v>0.7157738352307081</v>
       </c>
       <c r="N47" t="n">
-        <v>0.6156586270871985</v>
+        <v>0.0146134036054381</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.5588061782687976</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.9998552123552124</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.007361815109823799</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.5574030726181828</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.7157738352307081</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.0146134036054381</v>
       </c>
     </row>
     <row r="48">
@@ -2735,25 +3736,46 @@
         <v>36867</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7112593918680663</v>
+        <v>0.5606368839341417</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9997326346184696</v>
+        <v>0.9996106866514186</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4142904326764285</v>
+        <v>0.007844098541487928</v>
       </c>
       <c r="K48" t="n">
-        <v>0.6373056994818653</v>
+        <v>0.5592279001388473</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9993360775461426</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="M48" t="n">
-        <v>0.7783999833461707</v>
+        <v>0.717213687150838</v>
       </c>
       <c r="N48" t="n">
-        <v>0.58574930925789</v>
+        <v>0.01555852680199344</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.5606368839341417</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.9996106866514186</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.007844098541487928</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.5592279001388473</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.717213687150838</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.01555852680199344</v>
       </c>
     </row>
     <row r="49">
@@ -2783,25 +3805,46 @@
         <v>36013</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8909005081498348</v>
+        <v>0.5627690000833032</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9997298903354762</v>
+        <v>0.9996527605535989</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7757970517655125</v>
+        <v>0.007253689920524789</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8250557289344628</v>
+        <v>0.5614778078069711</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9996318928071855</v>
+        <v>0.9426229508196722</v>
       </c>
       <c r="M49" t="n">
-        <v>0.9040326323245647</v>
+        <v>0.7190722569134701</v>
       </c>
       <c r="N49" t="n">
-        <v>0.8736046324593855</v>
+        <v>0.01439659489233851</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.5627690000833032</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.9996527605535989</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.007253689920524789</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.5614778078069711</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.9426229508196722</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0.7190722569134701</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.01439659489233851</v>
       </c>
     </row>
   </sheetData>
